--- a/python/three/night SD t1=6 t2=3 t3=2 δ1=0.5 δ2=0.2.xlsx
+++ b/python/three/night SD t1=6 t2=3 t3=2 δ1=0.5 δ2=0.2.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.85e+00</t>
+          <t>5.74e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0868</t>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.76e+01</t>
+          <t>6.14e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11000.0</t>
+          <t>0.49</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.51e+00</t>
+          <t>5.03e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>0.401</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.55e+00</t>
+          <t>5.05e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.403</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.39e-01</t>
+          <t>6.99e-02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.079</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.59e-03</t>
+          <t>1.88e-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>0.197</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.89e-06</t>
+          <t>4.11e-06</t>
         </is>
       </c>
     </row>
